--- a/Burndown chart.xlsx
+++ b/Burndown chart.xlsx
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,25 +203,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,17 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -350,17 +352,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -368,39 +392,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,11 +591,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1256293552"/>
-        <c:axId val="-1256297904"/>
+        <c:axId val="-1685808864"/>
+        <c:axId val="-1685819744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1256293552"/>
+        <c:axId val="-1685808864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +604,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1256297904"/>
+        <c:crossAx val="-1685819744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1256297904"/>
+        <c:axId val="-1685819744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +622,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1256293552"/>
+        <c:crossAx val="-1685808864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,11 +806,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1256294096"/>
-        <c:axId val="-1256296816"/>
+        <c:axId val="-1685813216"/>
+        <c:axId val="-1685811584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1256294096"/>
+        <c:axId val="-1685813216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -808,7 +819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1256296816"/>
+        <c:crossAx val="-1685811584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -816,7 +827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1256296816"/>
+        <c:axId val="-1685811584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +837,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1256294096"/>
+        <c:crossAx val="-1685813216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,11 +1021,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1256292464"/>
-        <c:axId val="-1256291376"/>
+        <c:axId val="-1685807232"/>
+        <c:axId val="-1685806688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1256292464"/>
+        <c:axId val="-1685807232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1034,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1256291376"/>
+        <c:crossAx val="-1685806688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1256291376"/>
+        <c:axId val="-1685806688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1256292464"/>
+        <c:crossAx val="-1685807232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,11 +1236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1261060496"/>
-        <c:axId val="-1261064848"/>
+        <c:axId val="-1685817024"/>
+        <c:axId val="-1685818112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1261060496"/>
+        <c:axId val="-1685817024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1250,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1261064848"/>
+        <c:crossAx val="-1685818112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1247,7 +1258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1261064848"/>
+        <c:axId val="-1685818112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,7 +1268,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="-1261060496"/>
+        <c:crossAx val="-1685817024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,26 +1719,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="4:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -1741,7 +1752,7 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1759,414 +1770,414 @@
       <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" spans="4:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>4</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
     </row>
     <row r="9" spans="4:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>6</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>3</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="6">
         <v>0</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="4:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="4:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="25"/>
+      <c r="F11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>5</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="6">
         <v>3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="6">
         <v>0</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="4:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
     </row>
     <row r="13" spans="4:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="5">
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="3">
         <f>SUM(G8:G12)</f>
         <v>23</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <f>G13-$G$13/4</f>
         <v>17.25</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <f t="shared" ref="I13:K13" si="0">H13-$G$13/4</f>
         <v>11.5</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="4:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="5">
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="3">
         <f>SUM(G8:G12)</f>
         <v>23</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <f>SUM(H8:H12)</f>
         <v>6</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <f>SUM(I8:I12)</f>
         <v>11</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <f>SUM(J8:J12)</f>
         <v>12</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <f>SUM(K8:K12)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
     </row>
     <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
     </row>
     <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
@@ -2193,336 +2204,336 @@
       <c r="K34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
     </row>
     <row r="35" spans="4:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>4</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>2</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>1</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
     </row>
     <row r="36" spans="4:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>5</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>3</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="3">
         <v>2</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
     </row>
     <row r="37" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>3</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="3">
         <v>2</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
     </row>
     <row r="38" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>4</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>2</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <v>1</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="3">
         <v>1</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
     </row>
     <row r="39" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="5">
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3">
         <f>SUM(G35:G38)</f>
         <v>16</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <f>G39-$G$39/4</f>
         <v>12</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <f t="shared" ref="I39:K39" si="1">H39-$G$39/4</f>
         <v>8</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
     </row>
     <row r="40" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="5">
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3">
         <f>SUM(G35:G38)</f>
         <v>16</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <f>SUM(H35:H38)</f>
         <v>10</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="3">
         <f t="shared" ref="I40:K40" si="2">SUM(I35:I38)</f>
         <v>5</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
     </row>
     <row r="41" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
     </row>
     <row r="52" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
     </row>
     <row r="53" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
     </row>
     <row r="54" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
     </row>
     <row r="55" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
     </row>
     <row r="56" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
     </row>
     <row r="57" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
     </row>
     <row r="58" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
     </row>
     <row r="59" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
     </row>
     <row r="60" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
@@ -2549,201 +2560,201 @@
       <c r="K60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
     </row>
     <row r="61" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="2">
         <v>3</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="3">
         <v>3</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="3">
         <v>1</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="3">
         <v>1</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
     </row>
     <row r="62" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="3">
         <v>3</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="3">
         <v>2</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="3">
         <v>1</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="3">
         <v>1</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
     </row>
     <row r="63" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="3">
         <v>6</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="3">
         <v>3</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="3">
         <v>3</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="3">
         <v>2</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="3">
         <v>3</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
     </row>
     <row r="64" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="3">
         <v>4</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="3">
         <v>3</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="3">
         <v>2</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="3">
         <v>1</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="5">
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="3">
         <f>SUM(G61:G64)</f>
         <v>16</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="3">
         <f>G65-$G$65/4</f>
         <v>12</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="3">
         <f t="shared" ref="I65:K65" si="3">H65-$G$65/4</f>
         <v>8</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="3">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="5">
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="3">
         <f>SUM(G61:G64)</f>
         <v>16</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="3">
         <f>SUM(H61:H64)</f>
         <v>11</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="3">
         <f t="shared" ref="I66:K66" si="4">SUM(I61:I64)</f>
         <v>7</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -2780,173 +2791,173 @@
       </c>
     </row>
     <row r="87" spans="4:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="2">
         <v>7</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="3">
         <v>5</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="3">
         <v>2</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="4:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="7" t="s">
+      <c r="E88" s="17"/>
+      <c r="F88" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="3">
         <v>4</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="3">
         <v>2</v>
       </c>
-      <c r="I88" s="5">
+      <c r="I88" s="3">
         <v>0</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="4:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="7" t="s">
+      <c r="E89" s="18"/>
+      <c r="F89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="3">
         <v>7</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="3">
         <v>3</v>
       </c>
-      <c r="I89" s="5">
+      <c r="I89" s="3">
         <v>3</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="3">
         <v>4</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="3">
         <v>4</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="3">
         <v>2</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I90" s="3">
         <v>1</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90" s="3">
         <v>1</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="5">
+      <c r="E91" s="14"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="3">
         <f>SUM(G87:G90)</f>
         <v>22</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="3">
         <f>G91-$G$39/4</f>
         <v>18</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="3">
         <f t="shared" ref="I91" si="5">H91-$G$39/4</f>
         <v>14</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="3">
         <f t="shared" ref="J91" si="6">I91-$G$39/4</f>
         <v>10</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="3">
         <f t="shared" ref="K91" si="7">J91-$G$39/4</f>
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D92" s="22" t="s">
+      <c r="D92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="5">
+      <c r="E92" s="14"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="3">
         <f>SUM(G87:G90)</f>
         <v>22</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="3">
         <f>SUM(H87:H90)</f>
         <v>12</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I92" s="3">
         <f t="shared" ref="I92:K92" si="8">SUM(I87:I90)</f>
         <v>6</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="D91:F91"/>
     <mergeCell ref="D92:F92"/>
     <mergeCell ref="E87:E89"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
